--- a/DOWNLOADS/EDITAIS/U_158125_E_905582025_02-10-2025_09h00m/U_158125_E_905582025_02-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158125_E_905582025_02-10-2025_09h00m/U_158125_E_905582025_02-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="196">
   <si>
     <t>Nº</t>
   </si>
@@ -481,7 +481,7 @@
     <t>Cortador grama Cortador Grama Tipo Motor: Gasolina, Potência Motor: 6HP, Material Lâmina: Aço Sae 6153, Características Adicionais: Motor De 4t/Sem Recolhedor/Faixa De Corte De 50 Cm</t>
   </si>
   <si>
-    <t>Incubadora B.O.D. com capacidade mínima interna de 300 LT, Circulação interna de ar forçada por micro-ventiladores; Programação de temperatura de segurança de no mínimo 20C abaixo e acima do set-point, com alarme áudio /visual e desligamento de todo sistema; Segurança com sistema de proteção de superaquecimento por termostato; reservatório interno para água que proporciona umidade por evaporação natural; Controlador de temperatura microprocessado digital, com sistema PID ou similar; sensor de temperatura, com leitura digital do set point e do processo; Simulação de período dia/noite (fotoperíodo) através de lâmpadas fluorescentes 20 watts cada reator eletrônico de partida; Controlador horário de 24 horas e com divisão de 15 em 15 minutos para programação do fotoperíodo; Painel (preferencialmente frontal superior) com controlador de temperatura, chave liga/desliga, temporizador ajustável do fotoperíodo e leds com indicação de aquecimento e refrigeração; Alimentação 220 volts, potência 1000 watts ou similar.</t>
+    <t>Incubadora B.O.D. com capacidade mínima interna de 300 LT, Circulação interna de ar forçada por micro-ventiladores; Programação de temperatura de segurança de no mínimo 2oC abaixo e acima do set-point, com alarme áudio /visual e desligamento de todo sistema; Segurança com sistema de proteção de superaquecimento por termostato; reservatório interno para água que proporciona umidade por evaporação natural; Controlador de temperatura microprocessado digital, com sistema PID ou similar; sensor de temperatura, com leitura digital do set point e do processo; Simulação de período dia/noite (fotoperíodo) através de lâmpadas fluorescentes 20 watts cada reator eletrônico de partida; Controlador horário de 24 horas e com divisão de 15 em 15 minutos para programação do fotoperíodo; Painel (preferencialmente frontal superior) com controlador de temperatura, chave liga/desliga, temporizador ajustável do fotoperíodo e leds com indicação de aquecimento e refrigeração; Alimentação 220 volts, potência 1000 watts ou similar.</t>
   </si>
   <si>
     <t>Geladeira de 240lt, dimensões mínimas: altura 140,6cm, largura 55cm, profundidade 61,1cm. Tensão/voltagem é de 127 a 220V. Cor branca, uma porta, Defrost, três prateleiras ajustáveis.</t>
@@ -490,37 +490,37 @@
     <t>Banqueta Giratória alta, sem encosto, com rodízios e aro de apoio para os pés. Assento redondo, estofado em espuma com 80mm de espessura e revestimento em couro sintético na cor preta. Base em aço e revestimento em polipropileno na cor preta. Sustentado por rodízios duplos em nylon, na cor preta. Regulagem de altura do assento a gás (pneumática). Diâmetro mínimo do assento: 350 mm. Altura do assento variável, com altura máxima de pelo menos 750mm.</t>
   </si>
   <si>
-    <t>Suta Florestal Mecânica: equipamento de medição de diâmetro com empunhaduras ajustáveis, removíveis, com régua milimetrada em alumínio, com o comprimento de 500mm. 8 furos para a instalação de tomadas duplas, que deverão acompanhar o produto. Todas as tomadas de 20A.</t>
+    <t>Suta Florestal Mecânica: equipamento de medição de diâmetro com empunhaduras ajustáveis, removíveis, com régua milimetrada em alumínio, com o comprimento de 500mm.</t>
   </si>
   <si>
     <t>Bancada com pés em aço galvanizado , com pintura eletrostática na cor branca, com 85cm de altura. Tampo de granito (espessura de 3cm) com 5,5m de comprimento, por 1,20m de largura. No centro do tampo de granito deverá ter 8 furos para a instalação de tomadas duplas, que deverão acompanhar o produto. Todas as tomadas de 20A.</t>
   </si>
   <si>
-    <t>Miras topográfica milimetrada de Alumínio. Material: Alumínio de alta resistência. Altura: 4 metros. Seções: 4 seções telescópicas Escala: Graduada em milímetros e centímetros. Cor: Prata com marcações em preto e vermelho. Fixação: Sistema de travamento seguro para estabilidade. Itens Inclusos: 1 Mira Topográfica Milimetrada em Alumínio de 4 Metros, 1 Nível Integrado</t>
-  </si>
-  <si>
-    <t>Chocadeira com ovoscópio DESTAK.</t>
-  </si>
-  <si>
-    <t>Clinômetro Florestal Eletrônico: instrumento eletrônico de medição de inclinações e alturas. A partir de uma distância previamente medida manualmente e dois ângulos medidos pelo clinômetro, ele calcula e apresenta a altura do objeto diretamente no visor. Como todos os dados são processados pelo instrumento qualquer risco de erro de cálculo é eliminado. Todas as funções do aparelho operam com um único botão. Especificações técnicas: Dimensões 20 x 63 x 44 mm; Peso 50g (incluindo bateria); Bateria 1 AA; Altura 999m; Distância 0-999m; Resolução 0.1m lt; 100m, 1m / &amp;gt; 100m; Ângulo-550 / +85 o; Precisão do ângulo +-0,2 o; Modelo Metros/graus, 1 Bolsa de Transporte</t>
-  </si>
-  <si>
-    <t>Analisador de leite ultrassônico, não utiliza reagentes químicos para análises, calibração automática e com bomba peristáltica para limpeza. Para os mais variados tipos de leite, realiza análises de gordura, extrato seco desengordurado, densidade, proteína, lactose, sólidos, água adicionada, ponto de congelamento e temperatura. Exatidão mínima das análises: Gordura: +0O. 08% ; Extrato seco desengordurado: +0.1%; Densidade: +0.3kg/m3; Proteínas: +0.1%; Lactose: +0.1%; Água adicionada: +3.0%; Temperatura: +1ºC; Ponto de; congelamento: +0.005ºC; Sólidos: +0.05%. Faixa de medição: Gordura: O a 20%; Extrato seco desengordurado: 3 a 15%; Densidade: 1015 a 1040 kg/m3; Proteínas: 2 a 7%; Lactose: 0.01 a 6%; Água adicionada: O a 70%; Temperatura: 1 a 40ºC; Ponto de congelamento: -0.3 a -0.7ºC; Sólidos: 0.4 a 1.5%; Dimensões mínimas: 50 x 140 x 180 mm; Peso mínimo: 1000g; Temperatura de operação: -10 a 50ºC; Umidade de operação: 10 a 9006UR (sem condensação); Alimentação: 12VDC (acompanha adaptador externo bivolt). Acessórios: 1 manual; 1 cabo RS232; 1 adaptador AC/DC (fonte de alimentação); 1 sache de solução alcalina para limpeza (DAILY); 1 sache de solução ácida para limpeza (WEEKLY); 1 CD (software); 2 cubetas de plástico; Software compatível com Windows; Impressora portátil.</t>
-  </si>
-  <si>
-    <t>Conjunto misto para o ensino superior, de 100 lâminas diferentes (uma de cada tipo), preparadas para observação em microscópio óptico, contendo materiais diversos contemplando o ensino de bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e parasitologia. Segue abaixo um exemplo de composição de kit, a título de referência: 1-Folha Jasmim de inverno C.S, 2-Schistosoma Miracídio; 3-Esfregaço de sangue humano; 4-Asa da Mosca Caseira W.M; 5-Euglena W.M; 6-Paramécio W.M; 7-Hydra C.S; 8-Puccinia Graminis W.M; 9-Ustilago Tritici W.M; 10- Erysiphe W.M; 11-Hydra L.S; 12-Minhoca C.S; 13-Ovo de Ascaris W.M; 14- Boca do gafanhoto W.M.; 15-Testículo do gafanhoto Sec; 16-Antena de Borboleta W.M; 17-Ponta raiz da planta L.S; 18-Raiz de planta jovem C.S; 19- Estróbilo de Pinheiro Fêmea C.S; 20-Folha Dicotiledônea C.S; 21-Folha de Nlex chinensis C.S; 22-Sacaromiceto; 23-Penicilina; 24-Folha de Pinheiro C.S; 25-Mitose da célula da planta; 26-Esfregaço de Sangue do pombo; 27- Chlamydomonas; 28-Pele de folículo de cabelo humano Sec; 29-Músculo esquelético L e C Sec.; 30-Músculo liso L e C Sec.; 31-Músculo liso separado W.M; 32-Grãos de Pólen de Pinheiro maduro W.M; 33-Polens de lírios W.M; 34-Broto terminal L.S; 35-Caule da abóbora C.S; 36-Neurônio do motor W.M; 37-Teste but Sec; 38-Língua L.S; 39-Parede do estômago Sec; 40-Rhizopus Nigricans.; 41-Boca de Borboleta W.M; 42-Estróbilo de Pinheiro macho C.S; 43-Caule de dicotiledônea Xerófila C.S; 44-Corte longitudinal da semente de milho.; 45-Intestino Delgado Sec; 46-Guelra de Peixe Sec; 47-Pele de Râã Sec.; 48-Intestino delgado da rã sec; 49-Epiderme da cebola W.M; 50-Tecido adiposo; 51-Tecido conexivo denso (tendão L.S); 52-Pâncreas Sec; 53-Perna posterior da abelha Caseira W.M.; 54-Boca da mosca Caseira W.M; 55- Arteriovenosa C.S; 56-Bexiga urinaria Sec; 57-Corte de medula óssea Sec; 58- Epiderme do feijão W.M; 59-Folha Monocotiledônea C.S; 60-Aspergilo; 61- Rhizobium Meliloti Sec; 62-Caule da abóbora L.S; 63-Turbellaria C.S; 64- Tenia (Parasita) C.S; 65-Esfregaço de Sangue do peixe; 66-Guelra de Molusco Sec; 67-Fasciolopsis buski C.S; 68-Esfregaço de Sangue da rã; 69-Schistosoma (macho).; 70-Testículo C.S; 71-Utero Sec; 72-Osso denso Sec; 73-Caule de Monocotiledônea C.S; 74-Caule de Dicotiledônea C.S; 75-Fígado Sec; 76-Bile Sec; 77-Daphnia W.M; 78-Epitélio Escamoso Estratificado Sec; 79-Epitélio Ciliado Sec; 80-Pulmão Sec; 81-Esfregaço de Sangue de frango; 82-Raiz Velha de Cucúrbita T.S; 83-Líquen; 84-Baço Sec; 85-Uretero C.S; 86-Trompa de Folopio C.S; 87Corte da glândula sudorípara humana Sec; 88-Po-lens variados W.M; 89-Folhas avulsas de Pteridium; 90-Pétala W.M; 91-Corte de Fígado Infectado com Schistosoma; 92-Hirudo Nipponia X.S; 93-Caule de Populus C. S; 94-Closterium W.M; 95-Vesícula seminal C.S; 96-Corte longitudinal do músculo cardíaco L.S; 97-Cordão espinhal C.S; 98-Nervo C.S; 99-Gânglio espinhal Sec; 100-Ácaro vermelho (Tetranychus telarius) É aceitável a variação na composição das lâminas, desde que o conjunto contemple as áreas acima mencionadas (bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e Parasitologia).</t>
+    <t>Miras topográfica milimetrada de Alumínio. Material: Alumínio de alta resistência. Altura: 4 metros. Seções: 4 seções telescópicas Escala: Graduada em milímetros e centímetros. Cor: Prata com marcações em preto e vermelho. Fixação: Sistema de travamento seguro para estabilidade. Itens Inclusos: * 1 Mira Topográfica Milimetrada em Alumínio de 4 Metros * 1 Nível Integrado * 1 Bolsa de Transporte</t>
+  </si>
+  <si>
+    <t>Chocadeira Automática Digital com Temperatura e Umidade Digitais Principais Características: Controle digital de temperatura e umidade; Monitora e regula os parâmetros ideais de incubação. Ovoscópio embutido. Visualiza o desenvolvimento dos embriões sem precisar abrir a chocadeira. Com hastes separadoras de ovos, que permite colocar ovos de tamanhos variados, com organização e segurança. Possua sistema de viragem automática dos ovos a cada 2 horas. O que permite uniformidade na incubação. Com regulagem de temperatura máxima e mínima para garantir um ambiente ideal para chocar os ovos. Feita com material resistente e de duração longa como o plástico. Além disso facilita a limpeza. Material plástico, com capacidade para 36 ovos. Display de led. Controle de umidade, controle de temperatura e rolagem automática. Potência 80 w. Capacidade máxima 36 ovos. Altura x Comprimento x Largura: 18 m x 52 m x 48 m. Marca de Referência: Chocadeira com ovoscópio DESTAK.</t>
+  </si>
+  <si>
+    <t>Clinômetro Florestal Eletrônico: instrumento eletrônico de medição de inclinações e alturas. A partir de uma distância previamente medida manualmente e dois ângulos medidos pelo clinômetro, ele calcula e apresenta a altura do objeto diretamente no visor. Como todos os dados são processados pelo instrumento qualquer risco de erro de cálculo é eliminado. Todas as funções do aparelho operam com um único botão. Especificações técnicas: Dimensões 20 x 63 x 44 mm; Peso 50g (incluindo bateria); Bateria 1 AA; Altura 999m; Distância 0-999m; Resolução 0.1m ; lt;100m, 1m / &amp;gt; 100m; Ângulo-55o / +85 o; Precisão do ângulo +-0,2 o; Modelo Metros/graus</t>
+  </si>
+  <si>
+    <t>Analisador de leite ultrassônico, não utiliza reagentes químicos para análises, calibração automática e com bomba peristáltica para limpeza. Para os mais variados tipos de leite, realiza análises de gordura, extrato seco desengordurado, densidade, proteína, lactose, sólidos, água adicionada, ponto de congelamento e temperatura. Exatidão mínima das análises: Gordura: ±0.08%; Extrato seco desengordurado: ±0.1%; Densidade: ±0.3kg/m³; Proteínas: ±0.1%; Lactose: ±0.1%; Água adicionada: ±3.0%; Temperatura: ±1°C; Ponto de; congelamento: ±0.005°C; Sólidos: ±0.05%. Faixa de medição: Gordura: 0 a 20%; Extrato seco desengordurado: 3 a 15%; Densidade: 1015 a 1040 kg/m³; Proteínas: 2 a 7%; Lactose: 0.01 a 6%; Água adicionada: 0 a 70%; Temperatura: 1 a 40°C; Ponto de congelamento: -0.3 a -0.7°C; Sólidos: 0.4 a 1.5%; Dimensões mínimas: 50 x 140 x 180 mm; Peso mínimo: 1000g; Temperatura de operação: -10 a 50°C; Umidade de operação: 10 a 90%UR (sem condensação); Alimentação: 12VDC (acompanha adaptador externo bivolt). Acessórios: 1 manual; 1 cabo RS232; 1 adaptador AC/DC (fonte de alimentação); 1 sache de solução alcalina para limpeza (DAILY); 1 sache de solução ácida para limpeza (WEEKLY); 1 CD (software); 2 cubetas de plástico; Software compatível com Windows; Impressora portátil.</t>
+  </si>
+  <si>
+    <t>Conjunto misto para o ensino superior, de 100 lâminas diferentes (uma de cada tipo), preparadas para observação em microscópio óptico, contendo materiais diversos contemplando o ensino de bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e parasitologia. Segue abaixo um exemplo de composição de kit, a título de referência: 1-Folha Jasmim de inverno C.S, 2-Schistosoma Miracídio; 3-Esfregaço de sangue humano; 4-Asa da Mosca Caseira W.M; 5-Euglena W.M; 6-Paramécio W.M; 7-Hydra C.S; 8-Puccinia Graminis W.M; 9-Ustilago Tritici W.M; 10- Erysiphe W.M; 11-Hydra L.S; 12-Minhoca C.S; 13-Ovo de Ascaris W.M; 14- Boca do gafanhoto W.M.; 15-Testículo do gafanhoto Sec; 16-Antena de Borboleta W.M; 17-Ponta raiz da planta L.S; 18-Raiz de planta jovem C.S; 19- Estróbilo de Pinheiro Fêmea C.S; 20-Folha Dicotiledônea C.S; 21-Folha de Ilex chinensis C.S; 22-Sacaromiceto; 23-Penicilina; 24-Folha de Pinheiro C.S; 25-Mitose da célula da planta; 26-Esfregaço de Sangue do pombo; 27- Chlamydomonas; 28-Pele de folículo de cabelo humano Sec; 29-Músculo esquelético L e C Sec.; 30-Músculo liso L e C Sec.; 31-Músculo liso separado W.M; 32-Grãos de Pólen de Pinheiro maduro W.M; 33-Polens de lírios W.M; 34-Broto terminal L.S; 35-Caule da abóbora C.S; 36-Neurônio do motor W.M; 37-Teste but Sec; 38-Língua L.S; 39-Parede do estômago Sec; 40-Rhizopus Nigricans.; 41-Boca de Borboleta W.M; 42-Estróbilo de Pinheiro macho C.S; 43-Caule de dicotiledônea Xerófila C.S; 44-Corte longitudinal da semente de milho.; 45-Intestino Delgado Sec; 46-Guelra de Peixe Sec; 47-Pele de Rã Sec.; 48-Intestino delgado da rã sec; 49-Epiderme da cebola W.M; 50-Tecido adiposo; 51-Tecido conexivo denso (tendão L.S); 52-Pâncreas Sec; 53-Perna posterior da abelha Caseira W.M.; 54-Boca da mosca Caseira W.M; 55- Arteriovenosa C.S; 56-Bexiga urinaria Sec; 57-Corte de medula óssea Sec; 58- Epiderme do feijão W.M; 59-Folha Monocotiledônea C.S; 60-Aspergilo; 61- Rhizobium Meliloti Sec; 62-Caule da abóbora L.S; 63-Turbellaria C.S; 64- Tenía (Parasita) C.S; 65-Esfregaço de Sangue do peixe; 66-Guelra de Molusco Sec; 67-Fasciolopsis buski C.S; 68-Esfregaço de Sangue da rã; 69-Schistosoma (macho).; 70-Testículo C.S; 71-Utero Sec; 72-Osso denso Sec; 73-Caule de Monocotiledônea C.S; 74-Caule de Dicotiledônea C.S; 75-Fígado Sec; 76-Bile Sec; 77-Daphnia W.M; 78-Epitélio Escamoso Estratificado Sec; 79-Epitélio Ciliado Sec; 80-Pulmão Sec; 81-Esfregaço de Sangue de frango; 82-Raiz Velha de Cucúrbita T.S; 83-Líquen; 84-Baço Sec; 85-Uretero C.S; 86-Trompa de Folopio C.S; 87Corte da glândula sudorípara humana Sec; 88-Po-lens variados W.M; 89-Folhas avulsas de Pteridium; 90-Pétala W.M; 91-Corte de Fígado Infectado com Schistosoma; 92-Hirudo Nipponia X.S; 93-Caule de Populus C. S; 94-Closterium W.M; 95-Vesícula seminal C.S; 96-Corte longitudinal do músculo cardíaco L.S; 97-Cordão espinhal C.S; 98-Nervo C.S; 99-Gânglio espinhal Sec; 100-Ácaro vermelho (Tetranychus telarius) É aceitável a variação na composição das lâminas, desde que o conjunto contemple as áreas acima mencionadas (bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e Parasitologia).</t>
   </si>
   <si>
     <t>Freezer Vertical 1 Porta de 246L: Controle de temperatura no painel frontal, controle de temperatura com 3 níveis, painel de controle externo, indicadores luminosos, 5 cestas e 1 gaveta, 2 formas de gelo, cesto metálico pintado e a gaveta inferior de plástico, compartimento para congelamento rápido, porta reversível, cestos removíveis e deslizantes com trava de segurança, congelamento rápido, , sistema de degelo manual, uma porta chapa pintada na cor principal branca com puxador embutido, garantia de 12 meses. Peso líquido de 58kg, com 61,6 cm de largura, 1,70 cm de altura e 69,1 cm de profundidade, degelo manual, produto vertical. Certificação do Inmetro e Selo do Inmetro, função turbo freezer geral, capacidade líquida de 246 L, proteção pés estabilizadores e pés estabilizadores e ajustáveis. Potencia 220V, Frequência 60 Hz; Classificação Energética A+; Marca de referência: Consul</t>
   </si>
   <si>
-    <t>Microscópio Binocular composto de: Cabeçote Binocular: Ajuste de distância interpupilar de 47 a 75mm, rotação de 360º, com trava de parafuso, tubo binocular com livre articulação, tipo Siedentopf, inclinado a 30º, sistema óptico infinito. Platina: Capacidade para leitura de 1 lâmina, sistema de operação mecânica coaxial — movimento x/y, charriot (graduado, com área de trabalho de 54 mm x 78 mm e 0,1 de escala de Vernier), trava mecânica do tipo alavanca, que previne quebra de lâminas, largura de 132 mm; comprimento de 142mm. Sistema de Iluminação: ajuste contínuo da intensidade de luz, lâmpada de LED 3W, para melhor visualização (não necessita/acompanha filtro). Mecanismo de focalização: macrométrico e micrométrico conjugados e com ajuste de tensão, sistema de focalização 0,2 mm por rotação, com graduação de incrementos de 0,002mm. Revólver Giratório: revolver para 4 objetivas 4 x (0,10), 10 x (0,25), 40 x (0,65 — retrátil) 100 x (1,25 — retrátil de imersão), movimento giratório através de esferas com “click” de parada, objetivas planacromáticas, fabricadas em cristal óptico e com tratamento antifúngico. Condensador: condensador de campo claro, tipo ABBE, com abertura numérica de 1,25 N.A, dispositivo de Koehler, ajustável, para centralização do diafragma de íris. Fonte/Alimentação: ajuste contínuo de intensidade de luz, transformador com baixa voltagem e reostato de variação, que permite fácil ajuste de intensidade de luz, comutação automática 100-240V 50/60Hz (bivolt). Composição: 1 estativa e base compensada (corpo), 1 tubo binocular 300 (tipo Siedentopf), 2 oculares WF 10 x — com campo de 18mm, 1 objetiva PL 4 x planacromática, 1 objetiva PL 10 x planacromática, 1 objetiva PL 40 x planacromática (retrátil), 1 objetiva PL 100 x planacromática (retrátil de imersão), 1 lâmpada de LED, que proporciona melhor visualização (não acompanha filtro), 1 condensador tipo ABBE 1,25 N.A.</t>
-  </si>
-  <si>
-    <t>Determinador de fibras - Utilizado em análises de fibra bruta (FB), fibra detergente neutro (FDN) e fibra detergente ácido (FDA) pelos métodos Weende e Van Soest. Especificações técnicas: Controle de temperatura: Digital microprocessado com Temporizador (Timer) Eletrônico digital programável de 1 até 9999 minutos com alarme sonoro e visual- assim que atinge o set point desejado o tempo programado começa a ser considerado. Temperatura máxima de trabalho: da ebulição da água, ou até 120ºC para outros fluidos Sensor: Pt-100 Precisão: + 0,1º C Câmara de digestão: Em aço inoxidável 304 polido com capacidade para 10 discos perfurados e para 30 provas simultâneas no mínimo. Vir com saquinhos e seladora. Bivolt (110-240V) Marca de referência - Samsung Galaxy Chromebook Go Prata</t>
-  </si>
-  <si>
-    <t>Chromebook com Processador Intel&amp; Celeron&amp; N4500 (1,10 GHz até 2,80 Ghz com L3 Cache de 4 MB), Placa de Vídeo Intel&amp; UHD Graphics, Memória RAM de 4GB, armazenamento de 32GB, Tamanho da tela de 11.6", contendo Sistema Operacional Google Chrome OS, Duração da bateria de até 12 horas.</t>
+    <t>Microscópio Binocular composto de: Cabeçote Binocular: Ajuste de distância interpupilar de 47 a 75mm, rotação de 360º, com trava de parafuso, tubo binocular com livre articulação, tipo Siedentopf, inclinado a 30º, sistema óptico infinito. Platina: Capacidade para leitura de 1 lâmina, sistema de operação mecânica coaxial – movimento x/y, charriot (graduado, com área de trabalho de 54 mm x 78 mm e 0,1 de escala de Vernier), trava mecânica do tipo alavanca, que previne quebra de lâminas, largura de 132 mm; comprimento de 142mm. Sistema de Iluminação: ajuste contínuo da intensidade de luz, lâmpada de LED 3W, para melhor visualização (não necessita/acompanha filtro). Mecanismo de focalização: macrométrico e micrométrico conjugados e com ajuste de tensão, sistema de focalização 0,2 mm por rotação, com graduação de incrementos de 0,002mm. Revólver Giratório: revolver para 4 objetivas 4 x (0,10), 10 x (0,25), 40 x (0,65 – retrátil) 100 x (1,25 – retrátil de imersão), movimento giratório através de esferas com “click” de parada, objetivas planacromáticas, fabricadas em cristal óptico e com tratamento antifúngico. Condensador: condensador de campo claro, tipo ABBE, com abertura numérica de 1,25 N.A, dispositivo de Koehler, ajustável, para centralização do diafragma de íris. Fonte/Alimentação: ajuste contínuo de intensidade de luz, transformador com baixa voltagem e reostato de variação, que permite fácil ajuste de intensidade de luz, comutação automática 100-240V 50/60Hz (bivolt). Composição: 1 estativa e base compensada (corpo), 1 tubo binocular 30o (tipo Siedentopf), 2 oculares WF 10 x – com campo de 18mm, 1 objetiva PL 4 x planacromática, 1 objetiva PL 10 x planacromática, 1 objetiva PL 40 x planacromática (retrátil), 1 objetiva PL 100 x planacromática (retrátil de imersão), 1 lâmpada de LED, que proporciona melhor visualização (não acompanha filtro), 1 condensador tipo ABBE 1,25 N.A.</t>
+  </si>
+  <si>
+    <t>Determinador de fibras - Utilizado em análises de fibra bruta (FB), fibra detergente neutro (FDN) e fibra detergente ácido (FDA) pelos métodos Weende e Van Soest. Especificações técnicas: Controle de temperatura: Digital microprocessado com Temporizador (Timer) Eletrônico digital programável de 1 até 9999 minutos com alarme sonoro e visual- assim que atinge o set point desejado o tempo programado começa a ser considerado. Temperatura máxima de trabalho: da ebulição da água, ou até 120°C para outros fluidos Sensor: Pt-100 Precisão: ± 0,1° C Câmara de digestão: Em aço inoxidável 304 polido com capacidade para 10 discos perfurados e para 30 provas simultâneas no mínimo. Vir com saquinhos e seladora.</t>
+  </si>
+  <si>
+    <t>Chromebook com Processador Intel® Celeron® N4500 (1,10 GHz até 2,80 Ghz com L3 Cache de 4 MB), Placa de Vídeo Intel® UHD Graphics, Memória RAM de 4GB, armazenamento de 32GB, Tamanho da tela de 11.6", contendo Sistema Operacional Google Chrome OS, Duração da bateria de até 12 horas. Bivolt (110-240V) Marca de referência - Samsung Galaxy Chromebook Go Prata</t>
   </si>
   <si>
     <t>Memória Ram DDR3: Especificações: - Capacidade: mínimo 8GB - Frequência: 1.600MHz; - Latência máxima 11Padrão: DDR3 - Segmento: Desktop; - Tensão: 1.5V - Pinagem: 240-pin DIMM</t>
@@ -532,19 +532,19 @@
     <t>Bancada de Trabalho para Eletrônica com Barra de Tomadas + Manta Antiestática e Cabo de Aterramento, Estrutura totalmente metálica e de marcenaria; com barra de tomadas para ligar pelo menos até 8 equipamentos, tampo principal de aço inoxidável com manta antiestática; 3 níveis de armazenamento e suporte de objetos e ferramentas; com prateleiras superiores que permitem regulagem de altura; Pés com regulagem para correção do piso; com manta antiestática e cabo para aterramento; com painel em chapa perfurada para ferramentas; com gavetas inferiores, pintura através de processo eletrostático com tinta de poliéster em pó termoendurecível; Corrente máx. na barra de tomadas: 8A; Dimensões prateleiras superiores (CxL): 98x25cm; Dimensões do tampo e da manta (CxL): 100x50cm; Dimensões totais pelo menos (CxLxA): 100x50X150cm; capacidade 200kg; acompanhado com Manual de Montagem no idioma português;</t>
   </si>
   <si>
-    <t>Kit de desenvolvimento composto pelo menos com os seguintes itens 01 - Caixa organizadora; 01 - Placa de Desenvolvimento ESP32; 01 - Display OLED de 0.96 polegadas; 01 - Conjunto de 30 resistores (220R/1K]/10K); 01 - Buzzer Passivo; 01 - Buzzer Ativo; 01 - Protoboard de 830 pontos; 01 - Módulo de Desvio de Obstáculos; 01 - Módulo de Sensor de Luminosidade; 01 - Módulo Sensor de Temperatura e Umidade DHT11; 01 - Sensor de Movimento PIR HC-SR501; 01 - Potenciômetro de 10K; 01 - Cabo Micro USB; 01 - Módulo de Relé de 2 Canais 5V; 06 - Botões push button com capa; 10 - Jumpers Dupont Fêmea-Macho; 10 - Jumpers Dupont Dupont Fêmea-Fêmea; 10 - Jumpers Dupont Dupont Macho-Macho; 05 - LEDs Vermelhos 5mm; 05 - LEDs Amarelos 5mm; 05 - LEDs Verdes 5mm; 02 - LEDs RGB 5mm.</t>
+    <t>Kit de desenvolvimento composto pelo menos com os seguintes itens 01 - Caixa organizadora; 01 - Placa de Desenvolvimento ESP32; 01 - Display OLED de 0.96 polegadas; 01 - Conjunto de 30 resistores (220R/1K /10K); 01 - Buzzer Passivo; 01 - Buzzer Ativo; 01 - Protoboard de 830 pontos; 01 - Módulo de Desvio de Obstáculos; 01 - Módulo de Sensor de Luminosidade; 01 - Módulo Sensor de Temperatura e Umidade DHT11; 01 - Sensor de Movimento PIR HC-SR501; 01 - Potenciômetro de 10K; 01 - Cabo Micro USB; 01 - Módulo de Relé de 2 Canais 5V; 06 - Botões push button com capa; 10 - Jumpers Dupont Fêmea-Macho; 10 - Jumpers Dupont Dupont Fêmea-Fêmea; 10 - Jumpers Dupont Dupont Macho-Macho; 05 - LEDs Vermelhos 5mm; 05 - LEDs Amarelos 5mm; 05 - LEDs Verdes 5mm; 02 - LEDs RGB 5mm.</t>
   </si>
   <si>
     <t>SSD minimo 250GB, tipo M.2 tamanho maximo 2280, PCIe NVMe, Leitura minima 3500 MB/s, Gravacao minima 1300 MB</t>
   </si>
   <si>
-    <t>Soprador a combustão com motor de 56,5 cm? e potência de 2,6 kW. Vazão máxima de ar de 1.260 m3/h e velocidade do ar de 80 m/s, gerando força de sopro de 19 N. O peso total é de 9,1 kg e o nível de potência sonora é de 108 dB (A). Ideal para tarefas que exigem alta capacidade de fluxo de ar e força de impacto.</t>
+    <t>Soprador a combustão com motor de 56,5 cm³ e potência de 2,6 kW. Vazão máxima de ar de 1.260 m³/h e velocidade do ar de 80 m/s, gerando força de sopro de 19 N. O peso total é de 9,1 kg e o nível de potência sonora é de 108 dB (A). Ideal para tarefas que exigem alta capacidade de fluxo de ar e força de impacto.</t>
   </si>
   <si>
     <t>Bateria original para o drone Phantom 4, Phantom 4 Advanced, Phantom 4 Pro e Phantom 4 Pro+, com capacidade de 5.870 mAh e 15,2 V. Possui peso bruto de 515 gramas e suas dimensões na embalagem são de 11 x 15,6 x 7,3 cm.</t>
   </si>
   <si>
-    <t>Câmera de ação profissional para aplicações que exigem alta performance de imagem, resistência em campo e versatilidade de operação. Capaz de gravar vídeos em até 5.3K a 60 quadros por segundo, também oferece suporte para 4K a 120 qps, 2.7K a 240 qps e 1080p a 240 qps. Permite capturas fotográficas com resolução de até 27 megapixels e extração de quadros de vídeo com até 24,7 MP de definição. O equipamento incorpora um sistema avançado de estabilização digital com nivelamento automático de horizonte e compensação dinâmica de movimento, proporcionando imagens estáveis mesmo em condições adversas. À alimentação é feita por uma bateria de 1900 mAh com refrigeração otimizada, garantindo até 38% mais autonomia em ambientes de baixa ventilação. Possui estrutura resistente à água, suportando imersões de até 10 metros sem necessidade de caixa estanque adicional. Sua conectividade inclui suporte a redes Wi-Fi de última geração (padrão 6), Bluetooth e GPS integrado, além de funcionalidades como transmissão ao vivo em 1080p e operação no modo webcam. A câmera é compatível com lentes intercambiáveis, incluindo opções macro, grande angular, anamórfica e filtros de densidade neutra (ND), ampliando as possibilidades de captura conforme a aplicação. Também permite gravações em câmera lenta com taxas de até 400 quadros por segundo (720p), 360 qps (900p) e 120 qps em 5.3K, ideais para análises detalhadas de movimento. Entre os recursos adicionais, destacam-se os modos de gravação em loop, captura retroativa, acionamento rápido, lapso de tempo, HDR, perfil flat (Log) para pós- processamento e captura noturna com efeitos visuais.</t>
+    <t>Câmera de ação profissional para aplicações que exigem alta performance de imagem, resistência em campo e versatilidade de operação. Capaz de gravar vídeos em até 5.3K a 60 quadros por segundo, também oferece suporte para 4K a 120 qps, 2.7K a 240 qps e 1080p a 240 qps. Permite capturas fotográficas com resolução de até 27 megapixels e extração de quadros de vídeo com até 24,7 MP de definição. O equipamento incorpora um sistema avançado de estabilização digital com nivelamento automático de horizonte e compensação dinâmica de movimento, proporcionando imagens estáveis mesmo em condições adversas. A alimentação é feita por uma bateria de 1900 mAh com refrigeração otimizada, garantindo até 38% mais autonomia em ambientes de baixa ventilação. Possui estrutura resistente à água, suportando imersões de até 10 metros sem necessidade de caixa estanque adicional. Sua conectividade inclui suporte a redes Wi-Fi de última geração (padrão 6), Bluetooth e GPS integrado, além de funcionalidades como transmissão ao vivo em 1080p e operação no modo webcam. A câmera é compatível com lentes intercambiáveis, incluindo opções macro, grande angular, anamórfica e filtros de densidade neutra (ND), ampliando as possibilidades de captura conforme a aplicação. Também permite gravações em câmera lenta com taxas de até 400 quadros por segundo (720p), 360 qps (900p) e 120 qps em 5.3K, ideais para análises detalhadas de movimento. Entre os recursos adicionais, destacam-se os modos de gravação em loop, captura retroativa, acionamento rápido, lapso de tempo, HDR, perfil flat (Log) para pós- processamento e captura noturna com efeitos visuais.</t>
   </si>
   <si>
     <t>Baixo 4 cordas passivo Especificações: Linha precision bass ou jazz bass, Orientação da mão: destra. Marca e modelo de referência: Tagima Tjb4-s</t>
@@ -553,22 +553,22 @@
     <t>Mesa de som Especificações: Pelo menos 10 canais com entrada p10; Pelo menos 8 canais com entrada xlr; Função Phantom; Função mute individual; Controle de ganho individual; Controle de altas frequências individual; Controle de médias frequências individual; Controle de baixas frequências individual; Controle de volume individual; Controle de volume geral; Saídas L e R em XLR; Saídas para fones de ouvido; Controle de volume de fone de ouvido; Indicador Peak para cada canal; Controle de balanceamento L e R individual (função PAN); Pelo menos uma saída auxiliar e controle do seu volume geral e individual; Pelo menos uma saída “Fx send” e seu controle geral; Indicador em display de volumes L e R do volume geral; Entrada para mídias USB; Compatibilidade de saída USB na função de interface de áudio; Efeitos, com controle individual e geral; Possuir pelo menos os efeitos de reverb (hall e room) e plate e seus controles individuais e gerais; Efeito de compressor em pelo menos 4 canais; Compatibilidade bluetooth; Reprodutor de mídias .mp3 e .wav; Marca e modelo de referência: Soundcraft Mi-12.</t>
   </si>
   <si>
-    <t>Conjunto óptico de observação celeste (COOC): 1) Tubo óptico: Telescópio Refletor Newtoniano: - Tipo: Refletor Newtoniano; - Abertura mínima: 200 mm; - Distância focal aproximada: 1000 mm; - Espelho primário parabólico com revestimento refletivo de alta eficiência (alumínio ou equivalente) com proteção contra oxidação. *Qualidade óptica de no mínimo 1/8 de lambda. *Metalização com proteção de SiO2. - Espelho secundário em suporte ajustável para alinhamento preciso (colimação); - Focalizador de 1.25” — com 4 micro rolamentos e todo fabricado em alumínio. Com microfoco 10:1 ou 15:1. - Compatibilidade com oculares e acessórios fotográficos com diâmetro padrão de 1,25”; - Buscador óptico ou eletrônico com ampliação mínima de 6x para facilitar a localização de objetos; - Capacidade para instalação de câmeras CCD ou DSLR, permitindo astrofotografia de objetos de céu profundo; - Estrutura robusta com tubo metálico (ou fibra de carbono) pintado com tinta anticorrosiva; - Tampa de proteção para o espelho primário e ocular; - Anéis e régua de suporte e encaixe, compatível com montagem equatorial e o peso do tubo óptico, preferencialmente em alumínio. 2) Montagem Equatorial Automatizada (GoTo) - Tipo: Montagem Equatorial, compatível com o telescópio, com motorização em ambos os eixos (Ascensão Reta e Declinação) mínimo EQ3; - Capacidade de carga mínima: 10 kg, adequada para suportar o tubo óptico descrito e eventuais acessórios adicionais (ex.: câmera CCD); - Sistema GoTo com banco de dados de objetos celestes (mínimo de 20.000 objetos); - Rastreamento automático da rotação da Terra, permitindo o acompanhamento contínuo de objetos celestes; - Controle remoto com display retroiluminado em português de preferência, ou inglês, ou interface compatível com conexão a computador via USB ou similar; - Compatibilidade com softwares de astronomia e astrofotografia, com suporte para protocolos de comunicação padrão (ex.: ASCOM ou INDI); - Tripé ajustável em altura, confeccionado em aço inoxidável ou alumínio de alta resistência, com nível de bolha incorporado para alinhamento preciso; - Sistema de alinhamento polar assistido (ajuste manual e software de assistência); - Fonte de alimentação bivolt (110V/220V) ou compatível com bateria externa (ex.: 12V) 3) Oculares (2 unidades) -Ocular ASFÉRICA ASFÉRIA de alta ampliação: - Diâmetro: 1,25” -Distância focal: aproximadamente 10 mm -Lentes de vidro óptico com revestimento antirreflexo -Campo de visão amplo para observações planetárias detalhadas -Ocular ASFÉRICA de baixa ampliação: Diâmetro: 1,25” Distância focal: aproximadamente 25 mm Lentes de vidro óptico com revestimento antirreflexo Campo de visão largo para observações de objetos extensos como nebulosas e aglomerados 4) Acessórios e Complementos - Cabo de alimentação e cabos de conexão entre a montagem e o controle remoto ou computador; - Manual de instruções em português ou inglês; - Kit de montagem e ferramentas básicas para ajustes (ex.: chaves Allen); - Garantia mínima de 12 meses contra defeitos de fabricação; 5) Tripé para Telescópio com montagem Tipo: Tripé para montagem equatorial alemã automatizada. Material: Aço inoxidável ou alumínio anodizado de alta resistência, resistente à corrosão, com seções tubulares reforçadas que conferem estabilidade mesmo em terrenos irregulares Capacidade de carga: Mínima de 15 kg, compatível com o tubo óptico refletor de 200 mm e a montagem equatorial automatizada, garantindo suporte firme e seguro durante as observações astronômicas e astrofotografia Altura ajustável: Ajuste mínimo de 90 cm e máximo de 150 cm, com travas de segurança para nivelamento preciso e adaptação a diferentes usuários e condições de observação Nível de bolha incorporado: Para auxiliar o nivelamento adequado do equipamento, garantindo o alinhamento polar preciso da montagem equatorial Pés de borracha ou sapatas antiderrapantes: Evitam deslizamento e absorvem vibrações, proporcionando estabilidade adicional em superfícies variadas Compatibilidade: Deve possuir interface de conexão adequada (por exemplo, rosca padrão ou suporte em base plana) para fixação da montagem equatorial automatizada, assegurando a integração perfeita com o conjunto óptico e eletrônico Acessórios incluídos: Bandeja de acessórios central ou suporte para oculares, aumentando a praticidade durante as sessões de observação Acabamento: Pintura ou anodização anticorrosiva, garantindo durabilidade e resistência em ambientes externos 6) Observações Gerais - O fornecedor deverá prestar suporte técnico para instalação e operação inicial do equipamento e capacitação; - deverá informar prazo de entrega e condições de garantia, mínima de 1 ano;</t>
-  </si>
-  <si>
-    <t>ASPIRADOR DE PÓ VERTICAL: Com função 2 em 1, com sucção superior e equipado com uma mangueira extensível e sucção inferior. Acessórios inclusos: Bocal para sofás e cantos - Bocal Escova - Bocal de tapetes - Alça ergonômica. Capacidade do Reservatório de 3 litros. Garantia do Produto de 12 meses. Informações Adicionais: Tomada: 10A. Medidas aproximadas (LxXAxP /cm): 34 x 115 x 31 cm. Nível de Ruído de 86 dB(A). Orientação Vertical. Peso líquido máximo de (Kg) 6,5 Kg. Potência (W) de 2200W. Tensão (V) / Frequência (Hz)de 220V / 60Hz. Voltagem 220V.</t>
-  </si>
-  <si>
-    <t>Brinquedo circuito espumado — mínimo 22 peças, colorido, confeccionado em espuma de alta perfoímal.'lce D?20, revestido, ant.ialérgico, %mpermeável, lavável e resistente. Peças são fixadas em velcro. Medidas aproximadas: 410 x 240 x 120 cm. Marca de referência: Masterbrink</t>
-  </si>
-  <si>
-    <t>Kit Fantasia contendo 5 Fantasias infantis que represente animais — diferentes tipos - confeccionadas em tecido (algodão e/ou viscose). Tamanho próprio para crianças de 6 anos.</t>
+    <t>Conjunto óptico de observação celeste (COOC): 1) Tubo óptico: Telescópio Refletor Newtoniano: - Tipo: Refletor Newtoniano; - Abertura mínima: 200 mm; - Distância focal aproximada: 1000 mm; - Espelho primário parabólico com revestimento refletivo de alta eficiência (alumínio ou equivalente) com proteção contra oxidação. *Qualidade óptica de no mínimo 1/8 de lambda. *Metalização com proteção de SiO2. - Espelho secundário em suporte ajustável para alinhamento preciso (colimação); - Focalizador de 1.25” – com 4 micro rolamentos e todo fabricado em alumínio. Com microfoco 10:1 ou 15:1. - Compatibilidade com oculares e acessórios fotográficos com diâmetro padrão de 1,25”; - Buscador óptico ou eletrônico com ampliação mínima de 6x para facilitar a localização de objetos; - Capacidade para instalação de câmeras CCD ou DSLR, permitindo astrofotografia de objetos de céu profundo; - Estrutura robusta com tubo metálico (ou fibra de carbono) pintado com tinta anticorrosiva; - Tampa de proteção para o espelho primário e ocular; - Anéis e régua de suporte e encaixe, compatível com montagem equatorial e o peso do tubo óptico, preferencialmente em alumínio. 2) Montagem Equatorial Automatizada (GoTo) - Tipo: Montagem Equatorial, compatível com o telescópio, com motorização em ambos os eixos (Ascensão Reta e Declinação) mínimo EQ3; - Capacidade de carga mínima: 10 kg, adequada para suportar o tubo óptico descrito e eventuais acessórios adicionais (ex.: câmera CCD); - Sistema GoTo com banco de dados de objetos celestes (mínimo de 20.000 objetos); - Rastreamento automático da rotação da Terra, permitindo o acompanhamento contínuo de objetos celestes; - Controle remoto com display retroiluminado em português de preferência, ou inglês, ou interface compatível com conexão a computador via USB ou similar; - Compatibilidade com softwares de astronomia e astrofotografia, com suporte para protocolos de comunicação padrão (ex.: ASCOM ou INDI); - Tripé ajustável em altura, confeccionado em aço inoxidável ou alumínio de alta resistência, com nível de bolha incorporado para alinhamento preciso; - Sistema de alinhamento polar assistido (ajuste manual e software de assistência); - Fonte de alimentação bivolt (110V/220V) ou compatível com bateria externa (ex.: 12V) 3) Oculares (2 unidades) -Ocular ASFÉRICA ASFÉRIA de alta ampliação: - Diâmetro: 1,25” -Distância focal: aproximadamente 10 mm -Lentes de vidro óptico com revestimento antirreflexo -Campo de visão amplo para observações planetárias detalhadas -Ocular ASFÉRICA de baixa ampliação: Diâmetro: 1,25” Distância focal: aproximadamente 25 mm Lentes de vidro óptico com revestimento antirreflexo Campo de visão largo para observações de objetos extensos como nebulosas e aglomerados 4) Acessórios e Complementos - Cabo de alimentação e cabos de conexão entre a montagem e o controle remoto ou computador; - Manual de instruções em português ou inglês; - Kit de montagem e ferramentas básicas para ajustes (ex.: chaves Allen); - Garantia mínima de 12 meses contra defeitos de fabricação; 5) Tripé para Telescópio com montagem Tipo: Tripé para montagem equatorial alemã automatizada. Material: Aço inoxidável ou alumínio anodizado de alta resistência, resistente à corrosão, com seções tubulares reforçadas que conferem estabilidade mesmo em terrenos irregulares Capacidade de carga: Mínima de 15 kg, compatível com o tubo óptico refletor de 200 mm e a montagem equatorial automatizada, garantindo suporte firme e seguro durante as observações astronômicas e astrofotografia Altura ajustável: Ajuste mínimo de 90 cm e máximo de 150 cm, com travas de segurança para nivelamento preciso e adaptação a diferentes usuários e condições de observação Nível de bolha incorporado: Para auxiliar o nivelamento adequado do equipamento, garantindo o alinhamento polar preciso da montagem equatorial Pés de borracha ou sapatas antiderrapantes: Evitam deslizamento e absorvem vibrações, proporcionando estabilidade adicional em superfícies variadas Compatibilidade: Deve possuir interface de conexão adequada (por exemplo, rosca padrão ou suporte em base plana) para fixação da montagem equatorial automatizada, assegurando a integração perfeita com o conjunto óptico e eletrônico Acessórios incluídos: Bandeja de acessórios central ou suporte para oculares, aumentando a praticidade durante as sessões de observação Acabamento: Pintura ou anodização anticorrosiva, garantindo durabilidade e resistência em ambientes externos 6) Observações Gerais - O fornecedor deverá prestar suporte técnico para instalação e operação inicial do equipamento e capacitação; - deverá informar prazo de entrega e condições de garantia, mínima de 1 ano;</t>
+  </si>
+  <si>
+    <t>Aspirador de Pó E Água Aplicação: Limpeza Pó, Capacidade: 2L, Tensão Alimentação: 220V, Características Adicionais: 3 Níveis De Filtragem</t>
+  </si>
+  <si>
+    <t>Brinquedo circuito espumado – mínimo 22 peças, colorido, confeccionado em espuma de alta performance D20, revestido, antialérgico, impermeável, lavável e resistente. Peças são fixadas em velcro. Medidas aproximadas: 410 x 240 x 120 cm. Marca de referência: Masterbrink</t>
+  </si>
+  <si>
+    <t>Kit Fantasia contendo 5 Fantasias infantis que represente animais – diferentes tipos - confeccionadas em tecido (algodão e/ou viscose). Tamanho próprio para crianças de 6 anos.</t>
   </si>
   <si>
     <t>Arara para fantasia: Produzido com madeira Pinus. Dimensões Aproximadas: Altura: 95-88 cm. Comprimento: 62 - 58 cm. Profundidade: 38-37cm</t>
   </si>
   <si>
-    <t>Bolo — bolo feito em madeira com 6 fatias que se unem por velcro, um prato suporte de bolo, uma espátula de corte pintado com tinta atóxica. Cerificado pelo inmetro. Dimensões aproximadas: A (5 cm) x L (20 cm) x C (20 cm). Marca de referência: new art toys</t>
+    <t>Bolo – bolo feito em madeira com 6 fatias que se unem por velcro, um prato suporte de bolo, uma espátula de corte pintado com tinta atóxica. Cerificado pelo inmetro. Dimensões aproximadas: A (5 cm) x L (20 cm) x C (20 cm). Marca de referência: new art toys</t>
   </si>
   <si>
     <t>Frutas- kit com no mínimo 5 frutas em madeira, com corte que se unem por velcro, pintadas com tinta atóxica, contendo faca e tabua em madeira. Certificado pelo inmetro. Marca de referência: new art toys</t>
@@ -586,13 +586,7 @@
     <t>Cozinha infantil: composta por geladeira, pia e fogão feita de MDF e madeira de pinus. Pintura atóxica. Conta com portinhas abaixo da pia, permitindo que a criança guarde objetos em seu interior. A pia possui uma cuba de aproximadamente 20 cm de diâmetro. Acompanha uma torneira. Dimensões: L (72cm) x A (74cm) x P (34cm). Bancada da cozinha: aproximadamente 54 cm de altura do chão. Dimensões aproximadas da geladeira: L (44cm) x A (91cm) x P (30cm). PRODUTO CERTIFICADO PELO INMETRO. Marca de referência: a casa da criança.</t>
   </si>
   <si>
-    <t>Feirinha infantil: feita em MDF com madeira de pinus, pintando com tinta atóxica. Possui 2 prateleiras e uma bancada com telhadinho. A altura da bancada de aproximadamente 53 cm do chão. Acompanha 6 caixotes. PRODUTO CERTIFICADO PELO INMETRO. Tamanho aproximado: L (72cm) x A(96cm) x P(29 cm). Marca de referência: a casa da criança.</t>
-  </si>
-  <si>
-    <t>Lavanderia infantil: composta pela máquina de lavar roupa, tábua de passar e outros elementos adicionais. Feita em MDF e madeira de pinus, com pintura atóxica. Sua porta, de aproximadamente 16 cm, abre e fecha, podendo a criança inserir roupas em seu interior. Dimensões aproximadas: Máquina de lavar - À (44cm) x L (44 cm) x P (34 cm). Certificado pelo inmetro. Marca de referência: a casa da criança.</t>
-  </si>
-  <si>
-    <t>Mesa sensorial — em Madeira, com 4 pés, com duas bandejas plásticas com capacidade aproximada de 7 litros. Dimensões aproximadas: A (53cm) x L (56cm) x C(70 cm) / Bandejas (7 litros). Peso aproximado: 8 kg Marca de referência: a casa da</t>
+    <t>Feirinha infantil: feita em MDF com madeira de pinus, pintando com tinta atóxica. Possui 2 prateleiras e uma bancada com telhadinho. A altura da bancada de aproximadamente 5</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1020,13 +1014,13 @@
         <v>11497.52</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1049,13 +1043,13 @@
         <v>4519.8</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1078,13 +1072,13 @@
         <v>10399.6</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1107,13 +1101,13 @@
         <v>3199</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1136,13 +1130,13 @@
         <v>21554</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1165,13 +1159,13 @@
         <v>1283.95</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1194,13 +1188,13 @@
         <v>772.26</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1223,13 +1217,13 @@
         <v>6646.66</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1252,13 +1246,13 @@
         <v>5575.35</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1281,13 +1275,13 @@
         <v>3989.49</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1310,13 +1304,13 @@
         <v>3258.99</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1339,13 +1333,13 @@
         <v>12594</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1368,13 +1362,13 @@
         <v>16335</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1397,13 +1391,13 @@
         <v>5888.04</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1426,13 +1420,13 @@
         <v>4697.28</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1455,13 +1449,13 @@
         <v>10887.94</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1484,13 +1478,13 @@
         <v>1649.9</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1513,13 +1507,13 @@
         <v>1187</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1542,13 +1536,13 @@
         <v>13764</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1571,13 +1565,13 @@
         <v>7401.99</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1600,13 +1594,13 @@
         <v>4439.94</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1629,13 +1623,13 @@
         <v>7316.48</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1658,13 +1652,13 @@
         <v>1645.83</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1687,13 +1681,13 @@
         <v>2039</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1716,13 +1710,13 @@
         <v>42458</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1745,13 +1739,13 @@
         <v>1307.48</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1774,13 +1768,13 @@
         <v>6911</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1803,13 +1797,13 @@
         <v>1014.4</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1832,13 +1826,13 @@
         <v>321.6</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1861,13 +1855,13 @@
         <v>189.43</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1890,13 +1884,13 @@
         <v>178.32</v>
       </c>
       <c r="G32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1919,13 +1913,13 @@
         <v>267.89</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1948,13 +1942,13 @@
         <v>222.48</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1977,13 +1971,13 @@
         <v>325.69</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2006,13 +2000,13 @@
         <v>1590.26</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2035,13 +2029,13 @@
         <v>1022.39</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2051,9 +2045,6 @@
       <c r="B38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
-        <v>191</v>
-      </c>
       <c r="D38">
         <v>1</v>
       </c>
@@ -2064,13 +2055,13 @@
         <v>2022.53</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2080,9 +2071,6 @@
       <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
-        <v>192</v>
-      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -2093,13 +2081,13 @@
         <v>424.83</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2119,13 +2107,13 @@
         <v>1158.28</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2145,13 +2133,13 @@
         <v>2107.38</v>
       </c>
       <c r="G41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2171,13 +2159,13 @@
         <v>532.34</v>
       </c>
       <c r="G42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2197,13 +2185,13 @@
         <v>2040.1</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2223,13 +2211,13 @@
         <v>413.06</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2243,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2269,13 +2257,13 @@
         <v>2218.7</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2295,13 +2283,13 @@
         <v>383.3</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2321,13 +2309,13 @@
         <v>966.58</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2347,13 +2335,13 @@
         <v>2176.65</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2373,13 +2361,13 @@
         <v>517.3</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2399,13 +2387,13 @@
         <v>132.5</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2425,13 +2413,13 @@
         <v>237.89</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2451,13 +2439,13 @@
         <v>174.48</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2477,13 +2465,13 @@
         <v>105.96</v>
       </c>
       <c r="G54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2503,13 +2491,13 @@
         <v>307.84</v>
       </c>
       <c r="G55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2529,13 +2517,13 @@
         <v>300.6</v>
       </c>
       <c r="G56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2555,13 +2543,13 @@
         <v>244.05</v>
       </c>
       <c r="G57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2581,13 +2569,13 @@
         <v>195.74</v>
       </c>
       <c r="G58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2607,13 +2595,13 @@
         <v>50588</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2633,13 +2621,13 @@
         <v>8879.280000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2659,13 +2647,13 @@
         <v>6266.33</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2685,13 +2673,13 @@
         <v>2897.82</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2711,13 +2699,13 @@
         <v>35052.38</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2737,13 +2725,13 @@
         <v>18998.1</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2763,13 +2751,13 @@
         <v>2430</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2789,13 +2777,13 @@
         <v>7181.98</v>
       </c>
       <c r="G66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2815,13 +2803,13 @@
         <v>33125.33</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2841,13 +2829,13 @@
         <v>4654.06</v>
       </c>
       <c r="G68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2867,13 +2855,13 @@
         <v>3012.9</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2893,13 +2881,13 @@
         <v>2380</v>
       </c>
       <c r="G70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2919,13 +2907,13 @@
         <v>15255</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2945,13 +2933,13 @@
         <v>1523.12</v>
       </c>
       <c r="G72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2971,13 +2959,13 @@
         <v>22399.74</v>
       </c>
       <c r="G73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2997,13 +2985,13 @@
         <v>8963.969999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3023,13 +3011,13 @@
         <v>3789.6</v>
       </c>
       <c r="G75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3049,13 +3037,13 @@
         <v>3601.84</v>
       </c>
       <c r="G76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3075,13 +3063,13 @@
         <v>11101.3</v>
       </c>
       <c r="G77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_158125_E_905582025_02-10-2025_09h00m/U_158125_E_905582025_02-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158125_E_905582025_02-10-2025_09h00m/U_158125_E_905582025_02-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="85">
   <si>
     <t>Nº</t>
   </si>
@@ -43,234 +43,6 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>Incubadora Laboratório Incubadora Laboratório Ajuste: Ajuste Digital, C/ Painel De Controle, Tipo: Bod Com Controle De Umidade, Volume: Cerca De 350L, Temperatura: Controle De Temperatura Cerca De -10C A 60C, Adicional: Com Vedação, Componentes: Até 12 Prateleiras</t>
   </si>
   <si>
@@ -481,109 +253,7 @@
     <t>Cortador grama Cortador Grama Tipo Motor: Gasolina, Potência Motor: 6HP, Material Lâmina: Aço Sae 6153, Características Adicionais: Motor De 4t/Sem Recolhedor/Faixa De Corte De 50 Cm</t>
   </si>
   <si>
-    <t>Incubadora B.O.D. com capacidade mínima interna de 300 LT, Circulação interna de ar forçada por micro-ventiladores; Programação de temperatura de segurança de no mínimo 2oC abaixo e acima do set-point, com alarme áudio /visual e desligamento de todo sistema; Segurança com sistema de proteção de superaquecimento por termostato; reservatório interno para água que proporciona umidade por evaporação natural; Controlador de temperatura microprocessado digital, com sistema PID ou similar; sensor de temperatura, com leitura digital do set point e do processo; Simulação de período dia/noite (fotoperíodo) através de lâmpadas fluorescentes 20 watts cada reator eletrônico de partida; Controlador horário de 24 horas e com divisão de 15 em 15 minutos para programação do fotoperíodo; Painel (preferencialmente frontal superior) com controlador de temperatura, chave liga/desliga, temporizador ajustável do fotoperíodo e leds com indicação de aquecimento e refrigeração; Alimentação 220 volts, potência 1000 watts ou similar.</t>
-  </si>
-  <si>
-    <t>Geladeira de 240lt, dimensões mínimas: altura 140,6cm, largura 55cm, profundidade 61,1cm. Tensão/voltagem é de 127 a 220V. Cor branca, uma porta, Defrost, três prateleiras ajustáveis.</t>
-  </si>
-  <si>
-    <t>Banqueta Giratória alta, sem encosto, com rodízios e aro de apoio para os pés. Assento redondo, estofado em espuma com 80mm de espessura e revestimento em couro sintético na cor preta. Base em aço e revestimento em polipropileno na cor preta. Sustentado por rodízios duplos em nylon, na cor preta. Regulagem de altura do assento a gás (pneumática). Diâmetro mínimo do assento: 350 mm. Altura do assento variável, com altura máxima de pelo menos 750mm.</t>
-  </si>
-  <si>
-    <t>Suta Florestal Mecânica: equipamento de medição de diâmetro com empunhaduras ajustáveis, removíveis, com régua milimetrada em alumínio, com o comprimento de 500mm.</t>
-  </si>
-  <si>
-    <t>Bancada com pés em aço galvanizado , com pintura eletrostática na cor branca, com 85cm de altura. Tampo de granito (espessura de 3cm) com 5,5m de comprimento, por 1,20m de largura. No centro do tampo de granito deverá ter 8 furos para a instalação de tomadas duplas, que deverão acompanhar o produto. Todas as tomadas de 20A.</t>
-  </si>
-  <si>
-    <t>Miras topográfica milimetrada de Alumínio. Material: Alumínio de alta resistência. Altura: 4 metros. Seções: 4 seções telescópicas Escala: Graduada em milímetros e centímetros. Cor: Prata com marcações em preto e vermelho. Fixação: Sistema de travamento seguro para estabilidade. Itens Inclusos: * 1 Mira Topográfica Milimetrada em Alumínio de 4 Metros * 1 Nível Integrado * 1 Bolsa de Transporte</t>
-  </si>
-  <si>
-    <t>Chocadeira Automática Digital com Temperatura e Umidade Digitais Principais Características: Controle digital de temperatura e umidade; Monitora e regula os parâmetros ideais de incubação. Ovoscópio embutido. Visualiza o desenvolvimento dos embriões sem precisar abrir a chocadeira. Com hastes separadoras de ovos, que permite colocar ovos de tamanhos variados, com organização e segurança. Possua sistema de viragem automática dos ovos a cada 2 horas. O que permite uniformidade na incubação. Com regulagem de temperatura máxima e mínima para garantir um ambiente ideal para chocar os ovos. Feita com material resistente e de duração longa como o plástico. Além disso facilita a limpeza. Material plástico, com capacidade para 36 ovos. Display de led. Controle de umidade, controle de temperatura e rolagem automática. Potência 80 w. Capacidade máxima 36 ovos. Altura x Comprimento x Largura: 18 m x 52 m x 48 m. Marca de Referência: Chocadeira com ovoscópio DESTAK.</t>
-  </si>
-  <si>
-    <t>Clinômetro Florestal Eletrônico: instrumento eletrônico de medição de inclinações e alturas. A partir de uma distância previamente medida manualmente e dois ângulos medidos pelo clinômetro, ele calcula e apresenta a altura do objeto diretamente no visor. Como todos os dados são processados pelo instrumento qualquer risco de erro de cálculo é eliminado. Todas as funções do aparelho operam com um único botão. Especificações técnicas: Dimensões 20 x 63 x 44 mm; Peso 50g (incluindo bateria); Bateria 1 AA; Altura 999m; Distância 0-999m; Resolução 0.1m ; lt;100m, 1m / &amp;gt; 100m; Ângulo-55o / +85 o; Precisão do ângulo +-0,2 o; Modelo Metros/graus</t>
-  </si>
-  <si>
-    <t>Analisador de leite ultrassônico, não utiliza reagentes químicos para análises, calibração automática e com bomba peristáltica para limpeza. Para os mais variados tipos de leite, realiza análises de gordura, extrato seco desengordurado, densidade, proteína, lactose, sólidos, água adicionada, ponto de congelamento e temperatura. Exatidão mínima das análises: Gordura: ±0.08%; Extrato seco desengordurado: ±0.1%; Densidade: ±0.3kg/m³; Proteínas: ±0.1%; Lactose: ±0.1%; Água adicionada: ±3.0%; Temperatura: ±1°C; Ponto de; congelamento: ±0.005°C; Sólidos: ±0.05%. Faixa de medição: Gordura: 0 a 20%; Extrato seco desengordurado: 3 a 15%; Densidade: 1015 a 1040 kg/m³; Proteínas: 2 a 7%; Lactose: 0.01 a 6%; Água adicionada: 0 a 70%; Temperatura: 1 a 40°C; Ponto de congelamento: -0.3 a -0.7°C; Sólidos: 0.4 a 1.5%; Dimensões mínimas: 50 x 140 x 180 mm; Peso mínimo: 1000g; Temperatura de operação: -10 a 50°C; Umidade de operação: 10 a 90%UR (sem condensação); Alimentação: 12VDC (acompanha adaptador externo bivolt). Acessórios: 1 manual; 1 cabo RS232; 1 adaptador AC/DC (fonte de alimentação); 1 sache de solução alcalina para limpeza (DAILY); 1 sache de solução ácida para limpeza (WEEKLY); 1 CD (software); 2 cubetas de plástico; Software compatível com Windows; Impressora portátil.</t>
-  </si>
-  <si>
-    <t>Conjunto misto para o ensino superior, de 100 lâminas diferentes (uma de cada tipo), preparadas para observação em microscópio óptico, contendo materiais diversos contemplando o ensino de bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e parasitologia. Segue abaixo um exemplo de composição de kit, a título de referência: 1-Folha Jasmim de inverno C.S, 2-Schistosoma Miracídio; 3-Esfregaço de sangue humano; 4-Asa da Mosca Caseira W.M; 5-Euglena W.M; 6-Paramécio W.M; 7-Hydra C.S; 8-Puccinia Graminis W.M; 9-Ustilago Tritici W.M; 10-Erysiphe W.M; 11-Hydra L.S; 12-Minhoca C.S; 13-Ovo de Ascaris W.M; 14-Boca do gafanhoto W.M.; 15-Testículo do gafanhoto Sec; 16-Antena de Borboleta W.M; 17-Ponta raiz da planta L.S; 18-Raiz de planta jovem C.S; 19-Estróbilo de Pinheiro Fêmea C.S; 20-Folha Dicotiledônea C.S; 21-Folha de Ilex chinensis C.S; 22-Sacaromiceto; 23-Penicilina; 24-Folha de Pinheiro C.S; 25-Mitose da célula da planta; 26-Esfregaço de Sangue do pombo; 27-Chlamydomonas; 28-Pele de folículo de cabelo humano Sec; 29-Músculo esquelético L e C Sec.; 30-Músculo liso L e C Sec.; 31-Músculo liso separado W.M; 32-Grãos de Pólen de Pinheiro maduro W.M; 33-Polens de lírios W.M; 34-Broto terminal L.S; 35-Caule da abóbora C.S; 36-Neurônio do motor W.M; 37-Teste but Sec; 38-Língua L.S; 39-Parede do estômago Sec; 40-Rhizopus Nigricans.; 41-Boca de Borboleta W.M; 42-Estróbilo de Pinheiro macho C.S; 43-Caule de dicotiledônea Xerófila C.S; 44-Corte longitudinal da semente de milho.; 45-Intestino Delgado Sec; 46-Guelra de Peixe Sec; 47-Pele de Rã Sec.; 48-Intestino delgado da rã sec; 49-Epiderme da cebola W.M; 50-Tecido adiposo; 51-Tecido conexivo denso (tendão L.S); 52-Pâncreas Sec; 53-Perna posterior da abelha Caseira W.M.; 54-Boca da mosca Caseira W.M; 55-Arteriovenosa C.S; 56-Bexiga urinaria Sec; 57-Corte de medula óssea Sec; 58-Epiderme do feijão W.M; 59-Folha Monocotiledônea C.S; 60-Aspergilo; 61-Rhizobium Meliloti Sec; 62-Caule da abóbora L.S; 63-Turbellaria C.S; 64-Tenía (Parasita) C.S; 65-Esfregaço de Sangue do peixe; 66-Guelra de Molusco Sec; 67-Fasciolopsis buski C.S; 68-Esfregaço de Sangue da rã; 69-Schistosoma (macho).; 70-Testículo C.S; 71-Utero Sec; 72-Osso denso Sec; 73-Caule de Monocotiledônea C.S; 74-Caule de Dicotiledônea C.S; 75-Fígado Sec; 76-Bile Sec; 77-Daphnia W.M; 78-Epitélio Escamoso Estratificado Sec; 79-Epitélio Ciliado Sec; 80-Pulmão Sec; 81-Esfregaço de Sangue de frango; 82-Raiz Velha de Cucúrbita T.S; 83-Líquen; 84-Baço Sec; 85-Uretero C.S; 86-Trompa de Folopio C.S; 87Corte da glândula sudorípara humana Sec; 88-Po-lens variados W.M; 89-Folhas avulsas de Pteridium; 90-Pétala W.M; 91-Corte de Fígado Infectado com Schistosoma; 92-Hirudo Nipponia X.S; 93-Caule de Populus C. S; 94-Closterium W.M; 95-Vesícula seminal C.S; 96-Corte longitudinal do músculo cardíaco L.S; 97-Cordão espinhal C.S; 98-Nervo C.S; 99-Gânglio espinhal Sec; 100-Ácaro vermelho (Tetranychus telarius) É aceitável a variação na composição das lâminas, desde que o conjunto contemple as áreas acima mencionadas (bactérias, fungos, protozoários, algas, botânica, zoologia, histologia vegetal, animal e humana e Parasitologia).</t>
-  </si>
-  <si>
-    <t>Freezer Vertical 1 Porta de 246L: Controle de temperatura no painel frontal, controle de temperatura com 3 níveis, painel de controle externo, indicadores luminosos, 5 cestas e 1 gaveta, 2 formas de gelo, cesto metálico pintado e a gaveta inferior de plástico, compartimento para congelamento rápido, porta reversível, cestos removíveis e deslizantes com trava de segurança, congelamento rápido, , sistema de degelo manual, uma porta chapa pintada na cor principal branca com puxador embutido, garantia de 12 meses. Peso líquido de 58kg, com 61,6 cm de largura, 1,70 cm de altura e 69,1 cm de profundidade, degelo manual, produto vertical. Certificação do Inmetro e Selo do Inmetro, função turbo freezer geral, capacidade líquida de 246 L, proteção pés estabilizadores e pés estabilizadores e ajustáveis. Potencia 220V, Frequência 60 Hz; Classificação Energética A+; Marca de referência: Consul</t>
-  </si>
-  <si>
-    <t>Microscópio Binocular composto de: Cabeçote Binocular: Ajuste de distância interpupilar de 47 a 75mm, rotação de 360º, com trava de parafuso, tubo binocular com livre articulação, tipo Siedentopf, inclinado a 30º, sistema óptico infinito. Platina: Capacidade para leitura de 1 lâmina, sistema de operação mecânica coaxial – movimento x/y, charriot (graduado, com área de trabalho de 54 mm x 78 mm e 0,1 de escala de Vernier), trava mecânica do tipo alavanca, que previne quebra de lâminas, largura de 132 mm; comprimento de 142mm. Sistema de Iluminação: ajuste contínuo da intensidade de luz, lâmpada de LED 3W, para melhor visualização (não necessita/acompanha filtro). Mecanismo de focalização: macrométrico e micrométrico conjugados e com ajuste de tensão, sistema de focalização 0,2 mm por rotação, com graduação de incrementos de 0,002mm. Revólver Giratório: revolver para 4 objetivas 4 x (0,10), 10 x (0,25), 40 x (0,65 – retrátil) 100 x (1,25 – retrátil de imersão), movimento giratório através de esferas com “click” de parada, objetivas planacromáticas, fabricadas em cristal óptico e com tratamento antifúngico. Condensador: condensador de campo claro, tipo ABBE, com abertura numérica de 1,25 N.A, dispositivo de Koehler, ajustável, para centralização do diafragma de íris. Fonte/Alimentação: ajuste contínuo de intensidade de luz, transformador com baixa voltagem e reostato de variação, que permite fácil ajuste de intensidade de luz, comutação automática 100-240V 50/60Hz (bivolt). Composição: 1 estativa e base compensada (corpo), 1 tubo binocular 30o (tipo Siedentopf), 2 oculares WF 10 x – com campo de 18mm, 1 objetiva PL 4 x planacromática, 1 objetiva PL 10 x planacromática, 1 objetiva PL 40 x planacromática (retrátil), 1 objetiva PL 100 x planacromática (retrátil de imersão), 1 lâmpada de LED, que proporciona melhor visualização (não acompanha filtro), 1 condensador tipo ABBE 1,25 N.A.</t>
-  </si>
-  <si>
-    <t>Determinador de fibras - Utilizado em análises de fibra bruta (FB), fibra detergente neutro (FDN) e fibra detergente ácido (FDA) pelos métodos Weende e Van Soest. Especificações técnicas: Controle de temperatura: Digital microprocessado com Temporizador (Timer) Eletrônico digital programável de 1 até 9999 minutos com alarme sonoro e visual- assim que atinge o set point desejado o tempo programado começa a ser considerado. Temperatura máxima de trabalho: da ebulição da água, ou até 120°C para outros fluidos Sensor: Pt-100 Precisão: ± 0,1° C Câmara de digestão: Em aço inoxidável 304 polido com capacidade para 10 discos perfurados e para 30 provas simultâneas no mínimo. Vir com saquinhos e seladora.</t>
-  </si>
-  <si>
-    <t>Chromebook com Processador Intel® Celeron® N4500 (1,10 GHz até 2,80 Ghz com L3 Cache de 4 MB), Placa de Vídeo Intel® UHD Graphics, Memória RAM de 4GB, armazenamento de 32GB, Tamanho da tela de 11.6", contendo Sistema Operacional Google Chrome OS, Duração da bateria de até 12 horas. Bivolt (110-240V) Marca de referência - Samsung Galaxy Chromebook Go Prata</t>
-  </si>
-  <si>
-    <t>Memória Ram DDR3: Especificações: - Capacidade: mínimo 8GB - Frequência: 1.600MHz; - Latência máxima 11Padrão: DDR3 - Segmento: Desktop; - Tensão: 1.5V - Pinagem: 240-pin DIMM</t>
-  </si>
-  <si>
-    <t>Mini computador (tipo Box) com no mínimo 16gb de ram e no mínimo 256 gb de SSD, no mínimo processador M2, preferencialmente pelo M4, como no mínimo 2 portas Thunderbolt versão 4.0 ou superior, WiFi 6e e sistema operacional macOs. Com cabo de alimentação.</t>
-  </si>
-  <si>
-    <t>Bancada de Trabalho para Eletrônica com Barra de Tomadas + Manta Antiestática e Cabo de Aterramento, Estrutura totalmente metálica e de marcenaria; com barra de tomadas para ligar pelo menos até 8 equipamentos, tampo principal de aço inoxidável com manta antiestática; 3 níveis de armazenamento e suporte de objetos e ferramentas; com prateleiras superiores que permitem regulagem de altura; Pés com regulagem para correção do piso; com manta antiestática e cabo para aterramento; com painel em chapa perfurada para ferramentas; com gavetas inferiores, pintura através de processo eletrostático com tinta de poliéster em pó termoendurecível; Corrente máx. na barra de tomadas: 8A; Dimensões prateleiras superiores (CxL): 98x25cm; Dimensões do tampo e da manta (CxL): 100x50cm; Dimensões totais pelo menos (CxLxA): 100x50X150cm; capacidade 200kg; acompanhado com Manual de Montagem no idioma português;</t>
-  </si>
-  <si>
-    <t>Kit de desenvolvimento composto pelo menos com os seguintes itens 01 - Caixa organizadora; 01 - Placa de Desenvolvimento ESP32; 01 - Display OLED de 0.96 polegadas; 01 - Conjunto de 30 resistores (220R/1K /10K); 01 - Buzzer Passivo; 01 - Buzzer Ativo; 01 - Protoboard de 830 pontos; 01 - Módulo de Desvio de Obstáculos; 01 - Módulo de Sensor de Luminosidade; 01 - Módulo Sensor de Temperatura e Umidade DHT11; 01 - Sensor de Movimento PIR HC-SR501; 01 - Potenciômetro de 10K; 01 - Cabo Micro USB; 01 - Módulo de Relé de 2 Canais 5V; 06 - Botões push button com capa; 10 - Jumpers Dupont Fêmea-Macho; 10 - Jumpers Dupont Dupont Fêmea-Fêmea; 10 - Jumpers Dupont Dupont Macho-Macho; 05 - LEDs Vermelhos 5mm; 05 - LEDs Amarelos 5mm; 05 - LEDs Verdes 5mm; 02 - LEDs RGB 5mm.</t>
-  </si>
-  <si>
-    <t>SSD minimo 250GB, tipo M.2 tamanho maximo 2280, PCIe NVMe, Leitura minima 3500 MB/s, Gravacao minima 1300 MB</t>
-  </si>
-  <si>
-    <t>Soprador a combustão com motor de 56,5 cm³ e potência de 2,6 kW. Vazão máxima de ar de 1.260 m³/h e velocidade do ar de 80 m/s, gerando força de sopro de 19 N. O peso total é de 9,1 kg e o nível de potência sonora é de 108 dB (A). Ideal para tarefas que exigem alta capacidade de fluxo de ar e força de impacto.</t>
-  </si>
-  <si>
-    <t>Bateria original para o drone Phantom 4, Phantom 4 Advanced, Phantom 4 Pro e Phantom 4 Pro+, com capacidade de 5.870 mAh e 15,2 V. Possui peso bruto de 515 gramas e suas dimensões na embalagem são de 11 x 15,6 x 7,3 cm.</t>
-  </si>
-  <si>
-    <t>Câmera de ação profissional para aplicações que exigem alta performance de imagem, resistência em campo e versatilidade de operação. Capaz de gravar vídeos em até 5.3K a 60 quadros por segundo, também oferece suporte para 4K a 120 qps, 2.7K a 240 qps e 1080p a 240 qps. Permite capturas fotográficas com resolução de até 27 megapixels e extração de quadros de vídeo com até 24,7 MP de definição. O equipamento incorpora um sistema avançado de estabilização digital com nivelamento automático de horizonte e compensação dinâmica de movimento, proporcionando imagens estáveis mesmo em condições adversas. A alimentação é feita por uma bateria de 1900 mAh com refrigeração otimizada, garantindo até 38% mais autonomia em ambientes de baixa ventilação. Possui estrutura resistente à água, suportando imersões de até 10 metros sem necessidade de caixa estanque adicional. Sua conectividade inclui suporte a redes Wi-Fi de última geração (padrão 6), Bluetooth e GPS integrado, além de funcionalidades como transmissão ao vivo em 1080p e operação no modo webcam. A câmera é compatível com lentes intercambiáveis, incluindo opções macro, grande angular, anamórfica e filtros de densidade neutra (ND), ampliando as possibilidades de captura conforme a aplicação. Também permite gravações em câmera lenta com taxas de até 400 quadros por segundo (720p), 360 qps (900p) e 120 qps em 5.3K, ideais para análises detalhadas de movimento. Entre os recursos adicionais, destacam-se os modos de gravação em loop, captura retroativa, acionamento rápido, lapso de tempo, HDR, perfil flat (Log) para pós- processamento e captura noturna com efeitos visuais.</t>
-  </si>
-  <si>
-    <t>Baixo 4 cordas passivo Especificações: Linha precision bass ou jazz bass, Orientação da mão: destra. Marca e modelo de referência: Tagima Tjb4-s</t>
-  </si>
-  <si>
-    <t>Mesa de som Especificações: Pelo menos 10 canais com entrada p10; Pelo menos 8 canais com entrada xlr; Função Phantom; Função mute individual; Controle de ganho individual; Controle de altas frequências individual; Controle de médias frequências individual; Controle de baixas frequências individual; Controle de volume individual; Controle de volume geral; Saídas L e R em XLR; Saídas para fones de ouvido; Controle de volume de fone de ouvido; Indicador Peak para cada canal; Controle de balanceamento L e R individual (função PAN); Pelo menos uma saída auxiliar e controle do seu volume geral e individual; Pelo menos uma saída “Fx send” e seu controle geral; Indicador em display de volumes L e R do volume geral; Entrada para mídias USB; Compatibilidade de saída USB na função de interface de áudio; Efeitos, com controle individual e geral; Possuir pelo menos os efeitos de reverb (hall e room) e plate e seus controles individuais e gerais; Efeito de compressor em pelo menos 4 canais; Compatibilidade bluetooth; Reprodutor de mídias .mp3 e .wav; Marca e modelo de referência: Soundcraft Mi-12.</t>
-  </si>
-  <si>
-    <t>Conjunto óptico de observação celeste (COOC): 1) Tubo óptico: Telescópio Refletor Newtoniano: - Tipo: Refletor Newtoniano; - Abertura mínima: 200 mm; - Distância focal aproximada: 1000 mm; - Espelho primário parabólico com revestimento refletivo de alta eficiência (alumínio ou equivalente) com proteção contra oxidação. *Qualidade óptica de no mínimo 1/8 de lambda. *Metalização com proteção de SiO2. - Espelho secundário em suporte ajustável para alinhamento preciso (colimação); - Focalizador de 1.25” – com 4 micro rolamentos e todo fabricado em alumínio. Com microfoco 10:1 ou 15:1. - Compatibilidade com oculares e acessórios fotográficos com diâmetro padrão de 1,25”; - Buscador óptico ou eletrônico com ampliação mínima de 6x para facilitar a localização de objetos; - Capacidade para instalação de câmeras CCD ou DSLR, permitindo astrofotografia de objetos de céu profundo; - Estrutura robusta com tubo metálico (ou fibra de carbono) pintado com tinta anticorrosiva; - Tampa de proteção para o espelho primário e ocular; - Anéis e régua de suporte e encaixe, compatível com montagem equatorial e o peso do tubo óptico, preferencialmente em alumínio. 2) Montagem Equatorial Automatizada (GoTo) - Tipo: Montagem Equatorial, compatível com o telescópio, com motorização em ambos os eixos (Ascensão Reta e Declinação) mínimo EQ3; - Capacidade de carga mínima: 10 kg, adequada para suportar o tubo óptico descrito e eventuais acessórios adicionais (ex.: câmera CCD); - Sistema GoTo com banco de dados de objetos celestes (mínimo de 20.000 objetos); - Rastreamento automático da rotação da Terra, permitindo o acompanhamento contínuo de objetos celestes; - Controle remoto com display retroiluminado em português de preferência, ou inglês, ou interface compatível com conexão a computador via USB ou similar; - Compatibilidade com softwares de astronomia e astrofotografia, com suporte para protocolos de comunicação padrão (ex.: ASCOM ou INDI); - Tripé ajustável em altura, confeccionado em aço inoxidável ou alumínio de alta resistência, com nível de bolha incorporado para alinhamento preciso; - Sistema de alinhamento polar assistido (ajuste manual e software de assistência); - Fonte de alimentação bivolt (110V/220V) ou compatível com bateria externa (ex.: 12V) 3) Oculares (2 unidades) -Ocular ASFÉRICA ASFÉRIA de alta ampliação: - Diâmetro: 1,25” -Distância focal: aproximadamente 10 mm -Lentes de vidro óptico com revestimento antirreflexo -Campo de visão amplo para observações planetárias detalhadas -Ocular ASFÉRICA de baixa ampliação: Diâmetro: 1,25” Distância focal: aproximadamente 25 mm Lentes de vidro óptico com revestimento antirreflexo Campo de visão largo para observações de objetos extensos como nebulosas e aglomerados 4) Acessórios e Complementos - Cabo de alimentação e cabos de conexão entre a montagem e o controle remoto ou computador; - Manual de instruções em português ou inglês; - Kit de montagem e ferramentas básicas para ajustes (ex.: chaves Allen); - Garantia mínima de 12 meses contra defeitos de fabricação; 5) Tripé para Telescópio com montagem Tipo: Tripé para montagem equatorial alemã automatizada. Material: Aço inoxidável ou alumínio anodizado de alta resistência, resistente à corrosão, com seções tubulares reforçadas que conferem estabilidade mesmo em terrenos irregulares Capacidade de carga: Mínima de 15 kg, compatível com o tubo óptico refletor de 200 mm e a montagem equatorial automatizada, garantindo suporte firme e seguro durante as observações astronômicas e astrofotografia Altura ajustável: Ajuste mínimo de 90 cm e máximo de 150 cm, com travas de segurança para nivelamento preciso e adaptação a diferentes usuários e condições de observação Nível de bolha incorporado: Para auxiliar o nivelamento adequado do equipamento, garantindo o alinhamento polar preciso da montagem equatorial Pés de borracha ou sapatas antiderrapantes: Evitam deslizamento e absorvem vibrações, proporcionando estabilidade adicional em superfícies variadas Compatibilidade: Deve possuir interface de conexão adequada (por exemplo, rosca padrão ou suporte em base plana) para fixação da montagem equatorial automatizada, assegurando a integração perfeita com o conjunto óptico e eletrônico Acessórios incluídos: Bandeja de acessórios central ou suporte para oculares, aumentando a praticidade durante as sessões de observação Acabamento: Pintura ou anodização anticorrosiva, garantindo durabilidade e resistência em ambientes externos 6) Observações Gerais - O fornecedor deverá prestar suporte técnico para instalação e operação inicial do equipamento e capacitação; - deverá informar prazo de entrega e condições de garantia, mínima de 1 ano;</t>
-  </si>
-  <si>
-    <t>ASPIRADOR DE PÓ VERTICAL: Com função 2 em 1, com sucção superior e equipado com uma mangueira extensível e sucção inferior. Acessórios inclusos: Bocal para sofás e cantos - Bocal Escova - Bocal de tapetes - Alça ergonômica. Capacidade do Reservatório de 3 litros. Garantia do Produto de 12 meses. Informações Adicionais: Tomada: 10A. Medidas aproximadas (LxAxP /cm): 34 x 115 x 31 cm. Nível de Ruído de 86 dB(A). Orientação Vertical. Peso líquido máximo de (Kg) 6,5 Kg. Potência (W) de 2200W. Tensão (V) / Frequência (Hz)de 220V / 60Hz. Voltagem 220V.</t>
-  </si>
-  <si>
-    <t>Brinquedo circuito espumado – mínimo 22 peças, colorido, confeccionado em espuma de alta performance D20, revestido, antialérgico, impermeável, lavável e resistente. Peças são fixadas em velcro. Medidas aproximadas: 410 x 240 x 120 cm. Marca de referência: Masterbrink</t>
-  </si>
-  <si>
-    <t>Kit Fantasia contendo 5 Fantasias infantis que represente animais – diferentes tipos - confeccionadas em tecido (algodão e/ou viscose). Tamanho próprio para crianças de 6 anos.</t>
-  </si>
-  <si>
-    <t>Arara para fantasia: Produzido com madeira Pinus. Dimensões Aproximadas: Altura: 95-88 cm. Comprimento: 62 - 58 cm. Profundidade: 38-37cm</t>
-  </si>
-  <si>
-    <t>Bolo – bolo feito em madeira com 6 fatias que se unem por velcro, um prato suporte de bolo, uma espátula de corte pintado com tinta atóxica. Cerificado pelo inmetro. Dimensões aproximadas: A (5 cm) x L (20 cm) x C (20 cm). Marca de referência: new art toys</t>
-  </si>
-  <si>
-    <t>Frutas- kit com no mínimo 5 frutas em madeira, com corte que se unem por velcro, pintadas com tinta atóxica, contendo faca e tabua em madeira. Certificado pelo inmetro. Marca de referência: new art toys</t>
-  </si>
-  <si>
-    <t>Panelinhas- kit de panelinhas e utensílios de cozinha de madeira. No mínimo contendo 6 itens. Produto certificado pelo INMETRO. Pintado com tinta atóxica.</t>
-  </si>
-  <si>
-    <t>Torradeira - kit composto de 1 torradeira com pão, 1 pote de mel, 1 manteiga com corte em velcro, 1 faca e 1 espátula, todos feitos em madeira com pintura atóxica. PRODUTO CERTIFICADO PELO INMETRO. Dimensões aproximadas Torradeira: 16cm x 10cm x 6 cm, pães: 7 cm x 7 cm. Marca de referência : new art toy</t>
-  </si>
-  <si>
-    <t>Carrinho de compras/ supermercado: Feito em MDF e madeira de pinus. Pintando com tinta atóxica. Dimensões aproximadas: A(55cm) x L (31cm) x P (44cm) CERTIFICADO PELO INMETRO. Marca de referência: a casa da criança.</t>
-  </si>
-  <si>
-    <t>Cozinha infantil: composta por geladeira, pia e fogão feita de MDF e madeira de pinus. Pintura atóxica. Conta com portinhas abaixo da pia, permitindo que a criança guarde objetos em seu interior. A pia possui uma cuba de</t>
+    <t>IA NÃO RESPONDEU</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -992,14 +662,14 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1011,24 +681,24 @@
         <v>11497.52</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1040,24 +710,24 @@
         <v>4519.8</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1069,24 +739,24 @@
         <v>10399.6</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1098,24 +768,24 @@
         <v>3199</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1127,24 +797,24 @@
         <v>21554</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1156,24 +826,24 @@
         <v>1283.95</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1185,24 +855,24 @@
         <v>772.26</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1214,24 +884,24 @@
         <v>6646.66</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1243,24 +913,24 @@
         <v>5575.35</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1272,24 +942,24 @@
         <v>3989.49</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1301,24 +971,24 @@
         <v>3258.99</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1330,24 +1000,24 @@
         <v>12594</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1359,24 +1029,24 @@
         <v>16335</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1388,24 +1058,24 @@
         <v>5888.04</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>63</v>
@@ -1417,24 +1087,24 @@
         <v>4697.28</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1446,24 +1116,24 @@
         <v>10887.94</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1475,24 +1145,24 @@
         <v>1649.9</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1504,24 +1174,24 @@
         <v>1187</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -1533,24 +1203,24 @@
         <v>13764</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1562,24 +1232,24 @@
         <v>7401.99</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1591,24 +1261,24 @@
         <v>4439.94</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1620,24 +1290,24 @@
         <v>7316.48</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1649,24 +1319,24 @@
         <v>1645.83</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1678,24 +1348,24 @@
         <v>2039</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1707,24 +1377,24 @@
         <v>42458</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1736,24 +1406,24 @@
         <v>1307.48</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1765,24 +1435,24 @@
         <v>6911</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1794,24 +1464,24 @@
         <v>1014.4</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1823,24 +1493,24 @@
         <v>321.6</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1852,24 +1522,24 @@
         <v>189.43</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
-        <v>115</v>
-      </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1881,24 +1551,24 @@
         <v>178.32</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1910,24 +1580,24 @@
         <v>267.89</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1939,24 +1609,24 @@
         <v>222.48</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1968,24 +1638,24 @@
         <v>325.69</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1997,21 +1667,24 @@
         <v>1590.26</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>120</v>
+      <c r="C37" t="s">
+        <v>79</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2023,21 +1696,24 @@
         <v>1022.39</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
-        <v>121</v>
+      <c r="C38" t="s">
+        <v>79</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2049,21 +1725,24 @@
         <v>2022.53</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
-        <v>122</v>
+      <c r="C39" t="s">
+        <v>79</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2075,21 +1754,24 @@
         <v>424.83</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
-        <v>123</v>
+      <c r="C40" t="s">
+        <v>79</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2101,21 +1783,24 @@
         <v>1158.28</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
-        <v>124</v>
+      <c r="C41" t="s">
+        <v>79</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2127,21 +1812,24 @@
         <v>2107.38</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
-        <v>125</v>
+      <c r="C42" t="s">
+        <v>79</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2153,21 +1841,24 @@
         <v>532.34</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>126</v>
+      <c r="C43" t="s">
+        <v>79</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2179,21 +1870,24 @@
         <v>2040.1</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" t="s">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>127</v>
+      <c r="C44" t="s">
+        <v>79</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2205,41 +1899,47 @@
         <v>413.06</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" t="s">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>128</v>
+      <c r="C45" t="s">
+        <v>79</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
-        <v>129</v>
+      <c r="C46" t="s">
+        <v>79</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2251,21 +1951,24 @@
         <v>2218.7</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
-        <v>130</v>
+      <c r="C47" t="s">
+        <v>79</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2277,21 +1980,24 @@
         <v>383.3</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="s">
-        <v>131</v>
+      <c r="C48" t="s">
+        <v>79</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2303,21 +2009,24 @@
         <v>966.58</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>56</v>
+      <c r="A49">
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2329,21 +2038,24 @@
         <v>2176.65</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>57</v>
+      <c r="A50">
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2355,21 +2067,24 @@
         <v>517.3</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>58</v>
+      <c r="A51">
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2381,21 +2096,24 @@
         <v>132.5</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>59</v>
+      <c r="A52">
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2407,21 +2125,24 @@
         <v>237.89</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>60</v>
+      <c r="A53">
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2433,21 +2154,24 @@
         <v>174.48</v>
       </c>
       <c r="G53" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>61</v>
+      <c r="A54">
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2459,21 +2183,24 @@
         <v>105.96</v>
       </c>
       <c r="G54" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I54" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>62</v>
+      <c r="A55">
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2485,21 +2212,24 @@
         <v>307.84</v>
       </c>
       <c r="G55" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>63</v>
+      <c r="A56">
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2511,21 +2241,24 @@
         <v>300.6</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>64</v>
+      <c r="A57">
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2537,21 +2270,24 @@
         <v>244.05</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>65</v>
+      <c r="A58">
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2563,21 +2299,24 @@
         <v>195.74</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>66</v>
+      <c r="A59">
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
       </c>
       <c r="D59">
         <v>200</v>
@@ -2589,21 +2328,24 @@
         <v>50588</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>67</v>
+      <c r="A60">
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2615,21 +2357,24 @@
         <v>8879.280000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>68</v>
+      <c r="A61">
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2641,21 +2386,24 @@
         <v>6266.33</v>
       </c>
       <c r="G61" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I61" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>69</v>
+      <c r="A62">
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -2667,21 +2415,24 @@
         <v>2897.82</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I62" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>70</v>
+      <c r="A63">
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
       </c>
       <c r="D63">
         <v>11</v>
@@ -2693,21 +2444,24 @@
         <v>35052.38</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>71</v>
+      <c r="A64">
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2719,21 +2473,24 @@
         <v>18998.1</v>
       </c>
       <c r="G64" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>72</v>
+      <c r="A65">
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
       </c>
       <c r="D65">
         <v>30</v>
@@ -2745,21 +2502,24 @@
         <v>2430</v>
       </c>
       <c r="G65" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>73</v>
+      <c r="A66">
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2771,21 +2531,24 @@
         <v>7181.98</v>
       </c>
       <c r="G66" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>74</v>
+      <c r="A67">
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2797,21 +2560,24 @@
         <v>33125.33</v>
       </c>
       <c r="G67" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>75</v>
+      <c r="A68">
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2823,21 +2589,24 @@
         <v>4654.06</v>
       </c>
       <c r="G68" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>76</v>
+      <c r="A69">
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2849,21 +2618,24 @@
         <v>3012.9</v>
       </c>
       <c r="G69" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>77</v>
+      <c r="A70">
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2875,21 +2647,24 @@
         <v>2380</v>
       </c>
       <c r="G70" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I70" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>78</v>
+      <c r="A71">
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
       </c>
       <c r="D71">
         <v>15</v>
@@ -2901,21 +2676,24 @@
         <v>15255</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>79</v>
+      <c r="A72">
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2927,21 +2705,24 @@
         <v>1523.12</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>80</v>
+      <c r="A73">
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -2953,21 +2734,24 @@
         <v>22399.74</v>
       </c>
       <c r="G73" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>81</v>
+      <c r="A74">
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2979,21 +2763,24 @@
         <v>8963.969999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>82</v>
+      <c r="A75">
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3005,21 +2792,24 @@
         <v>3789.6</v>
       </c>
       <c r="G75" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>83</v>
+      <c r="A76">
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -3031,21 +2821,24 @@
         <v>3601.84</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>84</v>
+      <c r="A77">
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -3057,13 +2850,13 @@
         <v>11101.3</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
